--- a/biology/Botanique/Parc_Sainte-Marie/Parc_Sainte-Marie.xlsx
+++ b/biology/Botanique/Parc_Sainte-Marie/Parc_Sainte-Marie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Sainte-Marie est un jardin public de Nancy, situé dans le sud-ouest de la commune. 
@@ -512,10 +524,12 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le parc est situé dans le quartier Blandan, au cœur du quartier de l'École de Nancy et à proximité du Musée de l'École de Nancy. 
-C'est le deuxième parc municipal en superficie avec 7,5 hectares, après le parc de la Pépinière[1].
+C'est le deuxième parc municipal en superficie avec 7,5 hectares, après le parc de la Pépinière.
 Le parc est bordé à l'est par le complexe de piscines de Nancy-Thermal, au nord par la rue Pasteur, à l'ouest par l'avenue Boffrand et au sud par la cité judiciaire et l'avenue du Maréchal-Juin.
 Horaires d'ouverture
 Afin de suivre la durée diurne de la saison, le parc possède trois horaires différents de fermeture au cours de l'année :
@@ -549,7 +563,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte ce nom en référence à la présence d'ermitages consacrés à la Vierge au XVIIe siècle.
 </t>
@@ -580,9 +596,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est en 1620 que les jésuites s'y implantent et le nomment Sainte Marie. Le parc était à l'époque éloigné des murs de la ville[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est en 1620 que les jésuites s'y implantent et le nomment Sainte Marie. Le parc était à l'époque éloigné des murs de la ville.
 En 1808, il devient un jardin d'agrément privé. C'est à cette époque qu'il a été paysagé et planté d'arbres remarquables, parmi lesquels des séquoias pleureurs, des tulipiers, des cèdres et des chênes.
 En 1904, la ville en devient propriétaire et l'aménage en jardin public.
 De mai à novembre 1909, le parc Sainte-Marie, et plus généralement le quartier Nancy-Thermal, accueillirent l'Exposition internationale de l'Est de la France. Un des pavillons (le pavillon alsacien) est encore présent aujourd'hui. Abritant la maison de l'espace vert, il abrite désormais des expositions relatives à la faune et à la flore.
@@ -617,13 +635,50 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un magnolia de Soulange planté en 1909 a été labellisé arbre remarquable de France en 2014[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un magnolia de Soulange planté en 1909 a été labellisé arbre remarquable de France en 2014.
 			Pavillon alsacien
 			Les magnolias de Soulange en fleurs en 2018
-Activités sportives
-Le parc dispose d'une piste cyclable et d'un boulodrome[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parc_Sainte-Marie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Sainte-Marie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bâtiments remarquables et lieux de mémoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Activités sportives</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc dispose d'une piste cyclable et d'un boulodrome.
 Il existe un terrain de basketball.
 </t>
         </is>
